--- a/開発メモ/テーブル定義/250601_テーブル定義.xlsx
+++ b/開発メモ/テーブル定義/250601_テーブル定義.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naoya\z\app\StockTrack\開発メモ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z\app\stocktrack\開発メモ\テーブル定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D667DFCD-F907-414D-83CC-EA0E6CA5A63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3615" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-3615" windowWidth="16440" windowHeight="28320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -538,13 +537,17 @@
     <rPh sb="0" eb="2">
       <t>ヒンメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -760,34 +763,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A23:H32" totalsRowShown="0">
-  <autoFilter ref="A23:H32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A23:H32" totalsRowShown="0">
+  <autoFilter ref="A23:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="物理名"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="論理名"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="主キー" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="型" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIQUE" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NOTNULL" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="default" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FK" dataDxfId="8"/>
+    <tableColumn id="1" name="物理名"/>
+    <tableColumn id="2" name="論理名"/>
+    <tableColumn id="3" name="主キー" dataDxfId="13"/>
+    <tableColumn id="4" name="型" dataDxfId="12"/>
+    <tableColumn id="5" name="UNIQUE" dataDxfId="11"/>
+    <tableColumn id="6" name="NOTNULL" dataDxfId="10"/>
+    <tableColumn id="7" name="default" dataDxfId="9"/>
+    <tableColumn id="8" name="FK" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A3:H5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A3:H5"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="物理名"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="論理名"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="主キー" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="型" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UNIQUE" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="NOTNULL" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="default" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="FK" dataDxfId="0"/>
+    <tableColumn id="1" name="物理名"/>
+    <tableColumn id="2" name="論理名"/>
+    <tableColumn id="3" name="主キー" dataDxfId="5"/>
+    <tableColumn id="4" name="型" dataDxfId="4"/>
+    <tableColumn id="5" name="UNIQUE" dataDxfId="3"/>
+    <tableColumn id="6" name="NOTNULL" dataDxfId="2"/>
+    <tableColumn id="7" name="default" dataDxfId="1"/>
+    <tableColumn id="8" name="FK" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1055,17 +1058,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="127" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="127" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
@@ -1903,14 +1906,14 @@
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="8" t="b">
-        <v>0</v>
+      <c r="G72" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="H72" s="8"/>
     </row>
